--- a/outputs-HGR-r202/g__CAG-313.xlsx
+++ b/outputs-HGR-r202/g__CAG-313.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,35 +442,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1-s__</t>
+          <t>1-s__CAG-313 sp000433035</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2-s__CAG-313 sp000433035</t>
+          <t>2-s__CAG-313 sp003539625</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3-s__CAG-313 sp003539625</t>
+          <t>3-s__CAG-313 sp900539265</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4-s__CAG-313 sp900539265</t>
+          <t>max</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -483,26 +478,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.005757447022124274</v>
+        <v>0.02503841851433969</v>
       </c>
       <c r="C2" t="n">
-        <v>5.343984298533097e-05</v>
+        <v>0.9033650587653888</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9928708956050063</v>
+        <v>0.07159652272027157</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001318217529883982</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9928708956050063</v>
+        <v>0.9033650587653888</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>s__CAG-313 sp003539625</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>s__CAG-313 sp003539625</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
         <is>
           <t>s__CAG-313 sp003539625</t>
         </is>
@@ -515,28 +507,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04258260376425513</v>
+        <v>0.18578016698477</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236574375967768</v>
+        <v>0.2591005611648424</v>
       </c>
       <c r="D3" t="n">
-        <v>0.259581967610124</v>
+        <v>0.5551192718503877</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4612610526578529</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.4612610526578529</v>
+        <v>0.5551192718503877</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>s__CAG-313 sp900539265</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>s__CAG-313 sp900539265</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>s__CAG-313 sp900539265(reject)</t>
         </is>
       </c>
     </row>
@@ -547,28 +536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09476463689414795</v>
+        <v>0.1923358062912509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3671775668403686</v>
+        <v>0.2799359581853778</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2057724320551946</v>
+        <v>0.5277282355233713</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3322853642102889</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3671775668403686</v>
+        <v>0.5277282355233713</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>s__CAG-313 sp900539265</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>s__CAG-313 sp000433035</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>s__CAG-313 sp000433035(reject)</t>
+          <t>s__CAG-313 sp900539265</t>
         </is>
       </c>
     </row>
@@ -579,28 +565,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.14192023744254</v>
+        <v>0.214963490414841</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5560259991549934</v>
+        <v>0.1767661099385683</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05524779067744382</v>
+        <v>0.6082703996465906</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2468059727250227</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.5560259991549934</v>
+        <v>0.6082703996465906</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>s__CAG-313 sp900539265</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>s__CAG-313 sp000433035</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>s__CAG-313 sp000433035(reject)</t>
+          <t>s__CAG-313 sp900539265</t>
         </is>
       </c>
     </row>
@@ -611,26 +594,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.006392074401361201</v>
+        <v>0.1413204774128864</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04992582710436894</v>
+        <v>0.09301011109253005</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007529683221150419</v>
+        <v>0.7656694114945836</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9361524152731195</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9361524152731195</v>
+        <v>0.7656694114945836</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>s__CAG-313 sp900539265</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
-        <is>
-          <t>s__CAG-313 sp900539265</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
         <is>
           <t>s__CAG-313 sp900539265</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-313.xlsx
+++ b/outputs-HGR-r202/g__CAG-313.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>s__CAG-313 sp003539625</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>s__CAG-313 sp003539625</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>s__CAG-313 sp900539265</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>s__CAG-313 sp900539265</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>s__CAG-313 sp900539265</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>s__CAG-313 sp900539265(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -561,6 +581,11 @@
           <t>s__CAG-313 sp900539265</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>s__CAG-313 sp900539265</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -581,6 +606,11 @@
         <v>0.7656694114945836</v>
       </c>
       <c r="F6" t="inlineStr">
+        <is>
+          <t>s__CAG-313 sp900539265</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>s__CAG-313 sp900539265</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-313.xlsx
+++ b/outputs-HGR-r202/g__CAG-313.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>s__CAG-313 sp900539265</t>
+          <t>s__CAG-313 sp900539265(reject)</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>s__CAG-313 sp900539265</t>
+          <t>s__CAG-313 sp900539265(reject)</t>
         </is>
       </c>
     </row>
